--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="11910" windowHeight="5550"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>Musik</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Dekoration</t>
   </si>
   <si>
-    <t>Bastmatten</t>
-  </si>
-  <si>
     <t>Palmen</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Sandwerk St. Georgen</t>
   </si>
   <si>
-    <t>Freibad Mauthausen</t>
-  </si>
-  <si>
     <t>Liegestühle</t>
   </si>
   <si>
@@ -299,9 +293,6 @@
     <t>Tarnnetze (grün) 10 Stück</t>
   </si>
   <si>
-    <t>Durchlaufkühler + 2 Kohlensäurefl.</t>
-  </si>
-  <si>
     <t>JVP Ried (Gegenleistung 1x Kiste Bier)</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>Abholung 04.07. / 14:00</t>
   </si>
   <si>
-    <t>aw       Michael</t>
-  </si>
-  <si>
     <t>Geschirrmobil</t>
   </si>
   <si>
@@ -360,6 +348,18 @@
   </si>
   <si>
     <t>Schraubzwingen (30 Stück)</t>
+  </si>
+  <si>
+    <t>Bastmatten ---&gt; heuer 5 neue</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Durchlaufkühler + 3 Kohlensäurefl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -519,6 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -537,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -577,9 +578,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,7 +615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,7 +650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +850,7 @@
     <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -887,7 +888,7 @@
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -896,7 +897,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>6</v>
@@ -912,11 +913,11 @@
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -924,13 +925,13 @@
       <c r="I4" s="8"/>
       <c r="J4" s="17"/>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -938,7 +939,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
@@ -948,13 +949,13 @@
       <c r="I5" s="8"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -962,7 +963,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -972,13 +973,13 @@
       <c r="I6" s="8"/>
       <c r="J6" s="17"/>
       <c r="K6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -986,7 +987,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
@@ -996,13 +997,13 @@
       <c r="I7" s="8"/>
       <c r="J7" s="17"/>
       <c r="K7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -1010,7 +1011,7 @@
       <c r="A8" s="8"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
@@ -1020,19 +1021,19 @@
       <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -1044,7 +1045,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1060,7 +1061,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1076,7 +1077,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1084,7 +1085,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1092,7 +1093,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="1" t="s">
@@ -1102,17 +1103,17 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1128,7 +1129,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1136,19 +1137,17 @@
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="22"/>
+        <v>49</v>
+      </c>
+      <c r="J13" s="16"/>
       <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1162,50 +1161,50 @@
       <c r="A14" s="8"/>
       <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1216,27 +1215,27 @@
     </row>
     <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="18"/>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1246,12 +1245,12 @@
     </row>
     <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="18"/>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1260,43 +1259,43 @@
       <c r="I17" s="8"/>
       <c r="J17" s="17"/>
       <c r="K17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="17"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -1304,46 +1303,48 @@
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="17"/>
       <c r="L19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="17"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1352,10 +1353,10 @@
     </row>
     <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1367,20 +1368,20 @@
       <c r="J21" s="1"/>
       <c r="K21" s="17"/>
       <c r="L21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="1" t="s">
@@ -1390,19 +1391,19 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
       <c r="J22" s="18"/>
       <c r="K22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -1410,7 +1411,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1420,43 +1421,43 @@
       <c r="I23" s="8"/>
       <c r="J23" s="19"/>
       <c r="K23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -1464,27 +1465,27 @@
       <c r="A25" s="8"/>
       <c r="B25" s="17"/>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -1492,27 +1493,27 @@
       <c r="A26" s="8"/>
       <c r="B26" s="17"/>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -1520,56 +1521,56 @@
       <c r="A27" s="8"/>
       <c r="B27" s="23"/>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
       <c r="C29" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8"/>
       <c r="J29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1579,32 +1580,35 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1613,17 +1617,17 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="8" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P31" s="1"/>
     </row>
@@ -1631,7 +1635,7 @@
       <c r="A32" s="8"/>
       <c r="B32" s="17"/>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1639,57 +1643,57 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1698,7 +1702,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="8"/>
       <c r="J34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1709,11 +1713,11 @@
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1721,11 +1725,11 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1735,11 +1739,11 @@
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1747,11 +1751,11 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1763,10 +1767,10 @@
       <c r="A37" s="8"/>
       <c r="B37" s="17"/>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1785,7 +1789,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="17"/>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="11910" windowHeight="5550"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>Musik</t>
   </si>
@@ -197,9 +197,6 @@
     <t xml:space="preserve">Parkplatz </t>
   </si>
   <si>
-    <t>Rammer</t>
-  </si>
-  <si>
     <t>Verpflegung / Küche</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>1 Stück Gusenhüttn</t>
   </si>
   <si>
-    <t>Der Leberkäsofen von Böhm wird uns nicht zur Verfügung gestellt! Nur bei Warenkauf!</t>
-  </si>
-  <si>
     <t>3 zusätzliche Kühlschränke (groß)</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
   </si>
   <si>
     <t>12xStehtische</t>
-  </si>
-  <si>
-    <t>Rudi übernimmt trotz OP die Essensvorbereitung</t>
   </si>
   <si>
     <t>(2x Reserve FF-Pürach)</t>
@@ -485,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -514,12 +505,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -538,9 +530,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,9 +570,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,7 +607,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,7 +642,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,15 +915,15 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="17"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -947,15 +939,15 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="17"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -971,7 +963,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
@@ -979,7 +971,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -995,7 +987,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="17"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1003,7 +995,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -1027,7 +1019,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -1045,7 +1037,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1061,7 +1053,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1069,7 +1061,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="25"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1069,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1103,7 +1095,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -1129,7 +1121,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1137,7 +1129,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1161,13 +1153,13 @@
       <c r="A14" s="8"/>
       <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8" t="s">
@@ -1181,7 +1173,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -1197,14 +1189,14 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1223,15 +1215,15 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="1" t="s">
@@ -1265,23 +1257,21 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="8" t="s">
@@ -1295,7 +1285,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -1311,7 +1301,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="17"/>
@@ -1321,7 +1311,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -1329,13 +1319,13 @@
       <c r="A20" s="8"/>
       <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="8" t="s">
@@ -1368,16 +1358,14 @@
       <c r="J21" s="1"/>
       <c r="K21" s="17"/>
       <c r="L21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -1391,7 +1379,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
@@ -1403,7 +1391,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -1427,10 +1415,10 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1443,21 +1431,21 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -1471,21 +1459,21 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -1499,27 +1487,27 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1527,11 +1515,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="1" t="s">
@@ -1540,32 +1528,32 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8"/>
@@ -1585,21 +1573,21 @@
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="26"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P30" s="1"/>
     </row>
@@ -1617,23 +1605,23 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="17"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1647,21 +1635,21 @@
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="B33" s="27"/>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1669,13 +1657,13 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J33" s="17"/>
+        <v>111</v>
+      </c>
+      <c r="J33" s="27"/>
       <c r="K33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1683,7 +1671,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P33" s="1"/>
     </row>
@@ -1713,7 +1701,7 @@
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="1" t="s">
@@ -1741,7 +1729,7 @@
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1787,7 +1775,7 @@
     </row>
     <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="17"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Organisatorisches" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
   <si>
     <t>Musik</t>
   </si>
@@ -320,9 +320,6 @@
     <t>(2x Reserve FF-Pürach)</t>
   </si>
   <si>
-    <t>Abholung 04.07. / 14:00</t>
-  </si>
-  <si>
     <t>Geschirrmobil</t>
   </si>
   <si>
@@ -351,6 +348,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Michael</t>
+  </si>
+  <si>
+    <t>Abholung 10.07. / Uhrzeit wird noch ausgemacht</t>
+  </si>
+  <si>
+    <t>Abholung 10.07. / 11:30 Uhr</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -502,7 +505,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -816,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +917,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="27"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="1" t="s">
         <v>78</v>
       </c>
@@ -939,7 +941,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="27"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="1" t="s">
         <v>79</v>
       </c>
@@ -963,7 +965,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="27"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
@@ -987,7 +989,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="27"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1053,7 +1055,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1061,7 +1063,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1113,7 +1115,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1123,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1223,7 +1225,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="1" t="s">
@@ -1235,7 +1237,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
@@ -1261,7 +1263,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
@@ -1289,7 +1291,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
@@ -1301,7 +1303,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="17"/>
@@ -1315,7 +1317,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
@@ -1341,7 +1343,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>56</v>
       </c>
@@ -1367,7 +1369,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
@@ -1383,7 +1385,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="18"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,9 +1395,11 @@
       <c r="O22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
       <c r="C23" s="1" t="s">
@@ -1407,7 +1411,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="19"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,10 +1422,10 @@
         <v>84</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
@@ -1435,7 +1439,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="1" t="s">
@@ -1449,7 +1453,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="17"/>
       <c r="C25" s="1" t="s">
@@ -1463,11 +1467,11 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1477,7 +1481,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="17"/>
       <c r="C26" s="1" t="s">
@@ -1491,7 +1495,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="1" t="s">
@@ -1505,9 +1509,9 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="22"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1515,43 +1519,44 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
       <c r="C28" s="14" t="s">
         <v>88</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O28" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
+    </row>
+    <row r="29" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="22"/>
       <c r="C29" s="14" t="s">
         <v>97</v>
       </c>
@@ -1567,31 +1572,31 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
@@ -1605,7 +1610,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="1" t="s">
@@ -1619,7 +1624,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="15"/>
       <c r="C32" s="1" t="s">
@@ -1649,7 +1654,7 @@
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1661,9 +1666,9 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J33" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="J33" s="26"/>
       <c r="K33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1729,7 +1734,7 @@
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1780,7 @@
     </row>
     <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="27"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="11910" windowHeight="5550"/>
@@ -10,12 +10,12 @@
     <sheet name="Organisatorisches" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>Musik</t>
   </si>
@@ -353,7 +353,7 @@
     <t>Abholung 10.07. / Uhrzeit wird noch ausgemacht</t>
   </si>
   <si>
-    <t>Abholung 10.07. / 11:30 Uhr</t>
+    <t>Chrisi</t>
   </si>
 </sst>
 </file>
@@ -532,9 +532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -572,9 +572,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,7 +609,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,7 +644,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -818,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1237,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
@@ -1343,7 +1343,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>56</v>
       </c>
@@ -1356,9 +1356,11 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="17"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1369,7 +1371,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
@@ -1396,10 +1398,10 @@
         <v>82</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
       <c r="C23" s="1" t="s">
@@ -1425,7 +1427,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
@@ -1453,7 +1455,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="17"/>
       <c r="C25" s="1" t="s">
@@ -1481,7 +1483,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="17"/>
       <c r="C26" s="1" t="s">
@@ -1509,7 +1511,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="21"/>
       <c r="C27" s="1" t="s">
@@ -1538,8 +1540,11 @@
         <v>100</v>
       </c>
       <c r="Q27" s="15"/>
-    </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25"/>
       <c r="C28" s="14" t="s">
         <v>88</v>
@@ -1555,7 +1560,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="14" t="s">
         <v>97</v>
@@ -1572,7 +1577,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -1596,7 +1601,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
@@ -1624,7 +1629,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="15"/>
       <c r="C32" s="1" t="s">

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="11910" windowHeight="5550"/>
@@ -290,9 +290,6 @@
     <t>Tarnnetze (grün) 10 Stück</t>
   </si>
   <si>
-    <t>JVP Ried (Gegenleistung 1x Kiste Bier)</t>
-  </si>
-  <si>
     <t>1 Stück Gusenhüttn</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>am DO herstellen</t>
   </si>
   <si>
-    <t>Plöderl Mike</t>
-  </si>
-  <si>
     <t>Mayrhofer, Oggolder, Hinterkörner</t>
   </si>
   <si>
@@ -354,6 +348,12 @@
   </si>
   <si>
     <t>Chrisi</t>
+  </si>
+  <si>
+    <t>Dalpiaz Herbert</t>
+  </si>
+  <si>
+    <t>JVP Ried</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -514,6 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -532,9 +532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -572,9 +572,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,7 +609,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,7 +644,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +917,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="26"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="1" t="s">
         <v>78</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="26"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="1" t="s">
         <v>79</v>
       </c>
@@ -965,7 +965,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="26"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="26"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1055,7 +1055,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1063,7 +1063,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="23"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="I11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1167,7 +1167,7 @@
       <c r="I14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="1" t="s">
@@ -1303,7 +1303,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="17"/>
@@ -1357,7 +1357,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="15"/>
@@ -1398,7 +1398,7 @@
         <v>82</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1424,12 +1424,12 @@
         <v>84</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="1" t="s">
@@ -1469,11 +1469,11 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1497,11 +1497,11 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1521,11 +1521,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="1" t="s">
@@ -1534,18 +1534,18 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="14" t="s">
         <v>88</v>
       </c>
@@ -1554,16 +1554,16 @@
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="O28" s="14" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8"/>
@@ -1583,21 +1583,21 @@
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P30" s="1"/>
     </row>
@@ -1615,11 +1615,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1659,7 +1659,7 @@
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="26"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1671,9 +1671,9 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="26"/>
+        <v>108</v>
+      </c>
+      <c r="J33" s="25"/>
       <c r="K33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="1" t="s">
@@ -1725,7 +1725,7 @@
       <c r="I35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="17"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="I36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="17"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="26"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="11910" windowHeight="5550"/>
@@ -359,8 +359,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,9 +532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -572,9 +572,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,10 +606,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,10 +640,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -817,14 +815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
@@ -841,7 +839,7 @@
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>26</v>
@@ -861,7 +859,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -879,7 +877,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13.5" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
@@ -903,7 +901,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.5" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
@@ -929,7 +927,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.5" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
@@ -953,7 +951,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.5" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -977,7 +975,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="13.5" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
@@ -1001,7 +999,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="13.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
@@ -1025,7 +1023,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="13.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
@@ -1051,7 +1049,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="13.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
@@ -1075,7 +1073,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.5" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
@@ -1101,7 +1099,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="13.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
@@ -1127,7 +1125,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
@@ -1151,7 +1149,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
@@ -1179,7 +1177,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
@@ -1207,7 +1205,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
@@ -1237,7 +1235,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="13.5" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
@@ -1263,7 +1261,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="13.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
@@ -1291,7 +1289,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="13.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
@@ -1317,7 +1315,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="13.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
@@ -1343,7 +1341,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="13.5" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>56</v>
       </c>
@@ -1371,7 +1369,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="13.5" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="13.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
       <c r="C23" s="1" t="s">
@@ -1427,7 +1425,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="13.5" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="15"/>
       <c r="C24" s="1" t="s">
@@ -1455,9 +1453,9 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="13.5" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1483,9 +1481,9 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="13.5" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +1509,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="13.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="20"/>
       <c r="C27" s="1" t="s">
@@ -1544,7 +1542,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="13.5" customHeight="1">
       <c r="B28" s="24"/>
       <c r="C28" s="14" t="s">
         <v>88</v>
@@ -1560,7 +1558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="13.5" customHeight="1">
       <c r="B29" s="21"/>
       <c r="C29" s="14" t="s">
         <v>96</v>
@@ -1577,7 +1575,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="13.5" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -1601,7 +1599,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="13.5" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
@@ -1629,7 +1627,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="13.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="15"/>
       <c r="C32" s="1" t="s">
@@ -1655,7 +1653,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="13.5" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
@@ -1685,7 +1683,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="13.5" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>58</v>
       </c>
@@ -1709,7 +1707,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="13.5" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
@@ -1735,7 +1733,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
@@ -1761,7 +1759,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="13.5" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="17"/>
       <c r="C37" s="1" t="s">
@@ -1783,7 +1781,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="13.5" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="25"/>
       <c r="C38" s="1" t="s">
@@ -1803,7 +1801,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="13.5" customHeight="1">
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
       <c r="J39" s="1"/>
@@ -1814,10 +1812,10 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="41" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="42" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="43" spans="1:16" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1825,12 +1823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="11910" windowHeight="5550"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>Musik</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Geschirrmobil</t>
   </si>
   <si>
-    <t>am DO herstellen</t>
-  </si>
-  <si>
     <t>Mayrhofer, Oggolder, Hinterkörner</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>Durchlaufkühler + 3 Kohlensäurefl.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Michael</t>
-  </si>
-  <si>
     <t>Abholung 10.07. / Uhrzeit wird noch ausgemacht</t>
   </si>
   <si>
@@ -354,13 +348,22 @@
   </si>
   <si>
     <t>JVP Ried</t>
+  </si>
+  <si>
+    <t>Ganglberger (€ 550 inkl. Beleuchtung)</t>
+  </si>
+  <si>
+    <t>aw</t>
+  </si>
+  <si>
+    <t>aw       Michael</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -505,7 +508,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -532,9 +534,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -572,9 +574,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,9 +608,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,9 +643,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -815,14 +819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
@@ -839,7 +843,7 @@
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>26</v>
@@ -859,7 +863,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -877,7 +881,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1">
+    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
@@ -901,7 +905,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1">
+    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
@@ -914,8 +918,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="25"/>
+      <c r="I4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="15"/>
       <c r="K4" s="1" t="s">
         <v>78</v>
       </c>
@@ -927,7 +933,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1">
+    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
@@ -938,8 +944,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="25"/>
+      <c r="I5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="15"/>
       <c r="K5" s="1" t="s">
         <v>79</v>
       </c>
@@ -951,7 +959,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1">
+    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -963,7 +971,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="25"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
@@ -975,7 +983,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1">
+    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
@@ -986,8 +994,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="25"/>
+      <c r="I7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="15"/>
       <c r="K7" s="1" t="s">
         <v>45</v>
       </c>
@@ -999,7 +1009,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1">
+    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
@@ -1023,7 +1033,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1">
+    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
@@ -1049,11 +1059,11 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1">
+    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1061,7 +1071,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1069,11 +1079,11 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1">
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
@@ -1087,7 +1097,7 @@
       <c r="I11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1095,11 +1105,11 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1">
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
@@ -1113,7 +1123,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1121,11 +1131,11 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1">
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
@@ -1149,7 +1159,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1">
+    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
@@ -1165,7 +1175,7 @@
       <c r="I14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1187,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
@@ -1205,7 +1215,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
@@ -1223,7 +1233,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="1" t="s">
@@ -1235,7 +1245,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="13.5" customHeight="1">
+    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
@@ -1261,7 +1271,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
@@ -1289,7 +1299,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="13.5" customHeight="1">
+    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
@@ -1301,7 +1311,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="17"/>
@@ -1315,7 +1325,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="13.5" customHeight="1">
+    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
@@ -1341,7 +1351,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="13.5" customHeight="1">
+    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>56</v>
       </c>
@@ -1355,7 +1365,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="15"/>
@@ -1369,7 +1379,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="13.5" customHeight="1">
+    <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
@@ -1396,10 +1406,10 @@
         <v>82</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
       <c r="C23" s="1" t="s">
@@ -1422,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="15"/>
       <c r="C24" s="1" t="s">
@@ -1439,7 +1449,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="1" t="s">
@@ -1453,7 +1463,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="13.5" customHeight="1">
+    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
@@ -1467,11 +1477,11 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1481,7 +1491,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="13.5" customHeight="1">
+    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
@@ -1495,7 +1505,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="1" t="s">
@@ -1509,9 +1519,9 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1">
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1519,7 +1529,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
@@ -1539,67 +1549,73 @@
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="13.5" customHeight="1">
-      <c r="B28" s="24"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
       <c r="C28" s="14" t="s">
         <v>88</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="13.5" customHeight="1">
-      <c r="B29" s="21"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
       <c r="C29" s="14" t="s">
         <v>96</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="I29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="13.5" customHeight="1">
+    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="14" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="23"/>
+        <v>105</v>
+      </c>
+      <c r="J30" s="17"/>
       <c r="K30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="13.5" customHeight="1">
+    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
@@ -1613,21 +1629,21 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="8" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="14" t="s">
-        <v>81</v>
+      <c r="O31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="13.5" customHeight="1">
+    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="15"/>
       <c r="C32" s="1" t="s">
@@ -1639,25 +1655,25 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="J32" s="15"/>
       <c r="K32" s="1" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1" t="s">
-        <v>64</v>
+      <c r="O32" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="13.5" customHeight="1">
+    <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1668,22 +1684,18 @@
         <v>67</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="13.5" customHeight="1">
+    <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>58</v>
       </c>
@@ -1696,18 +1708,20 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="1"/>
+      <c r="I34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="13.5" customHeight="1">
+    <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
@@ -1723,9 +1737,9 @@
       <c r="I35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="25"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1733,11 +1747,11 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1746,20 +1760,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="13.5" customHeight="1">
+    <row r="37" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="17"/>
       <c r="C37" s="1" t="s">
@@ -1781,9 +1784,9 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="13.5" customHeight="1">
+    <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="25"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>
@@ -1801,7 +1804,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="13.5" customHeight="1">
+    <row r="39" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
       <c r="J39" s="1"/>
@@ -1812,10 +1815,10 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="40" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1823,12 +1826,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="11910" windowHeight="5550"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="11910" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Organisatorisches" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -508,7 +508,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -516,6 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -534,9 +534,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -574,9 +574,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,7 +611,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,7 +646,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -823,7 +823,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="H9" sqref="H9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="18"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
         <v>90</v>
       </c>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1535,13 +1535,13 @@
       <c r="I27" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="15" t="s">
         <v>91</v>
       </c>
       <c r="P27" s="15" t="s">
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="14" t="s">
         <v>88</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="14" t="s">
         <v>96</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="I29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="22"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="1" t="s">
         <v>103</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="14" t="s">
         <v>100</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="I34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="I35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="24"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="24"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>Musik</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>aw       Michael</t>
+  </si>
+  <si>
+    <t>Traktoren vom Ort</t>
   </si>
 </sst>
 </file>
@@ -510,12 +513,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -823,7 +826,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:M9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +974,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="23"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1123,7 +1126,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="25"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1257,9 @@
       <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="14"/>
       <c r="H17" s="1"/>
@@ -1383,7 +1388,7 @@
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1526,7 @@
     </row>
     <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="26"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1553,7 +1558,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="14" t="s">
         <v>88</v>
       </c>
@@ -1579,7 +1584,7 @@
       <c r="I29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="21"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="1" t="s">
         <v>103</v>
       </c>
@@ -1595,7 +1600,7 @@
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="22"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="14" t="s">
         <v>100</v>
       </c>
@@ -1631,7 +1636,7 @@
       <c r="I31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="17"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="1" t="s">
         <v>98</v>
       </c>
@@ -1711,7 +1716,7 @@
       <c r="I34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="23"/>
+      <c r="J34" s="22"/>
       <c r="K34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1725,7 +1730,7 @@
       <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1737,7 +1742,7 @@
       <c r="I35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="23"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1751,7 +1756,7 @@
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1791,7 @@
     </row>
     <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="225" windowWidth="11910" windowHeight="5490"/>
@@ -293,9 +293,6 @@
     <t>1 Stück Gusenhüttn</t>
   </si>
   <si>
-    <t>3 zusätzliche Kühlschränke (groß)</t>
-  </si>
-  <si>
     <t>50xBiergarnituren</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>Traktoren vom Ort</t>
+  </si>
+  <si>
+    <t>4 zusätzliche Kühlschränke (groß)</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,7 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -537,9 +536,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -577,9 +576,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,7 +613,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,7 +648,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +825,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +921,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="1" t="s">
@@ -948,7 +947,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="1" t="s">
@@ -974,7 +973,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="22"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
@@ -998,7 +997,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="1" t="s">
@@ -1050,7 +1049,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1066,7 +1065,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1074,7 +1073,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1081,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1108,7 +1107,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -1126,7 +1125,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +1133,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1228,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1236,9 +1235,9 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="J16" s="21"/>
       <c r="K16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1258,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="14"/>
       <c r="H17" s="1"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1278,7 +1277,7 @@
     </row>
     <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
         <v>90</v>
       </c>
@@ -1316,10 +1315,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="17"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1370,7 +1369,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="15"/>
@@ -1411,7 +1410,7 @@
         <v>82</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1436,7 @@
         <v>84</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,9 +1453,9 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="J24" s="21"/>
       <c r="K24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1482,11 +1481,11 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1510,11 +1509,11 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1526,7 +1525,7 @@
     </row>
     <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1534,11 +1533,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="1" t="s">
@@ -1550,15 +1549,15 @@
         <v>91</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="14" t="s">
         <v>88</v>
       </c>
@@ -1576,23 +1575,23 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="26"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P29" s="1"/>
     </row>
@@ -1600,17 +1599,17 @@
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1638,7 +1637,7 @@
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1660,7 +1659,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="1" t="s">
@@ -1716,7 +1715,7 @@
       <c r="I34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="22"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1728,9 +1727,9 @@
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="B35" s="21"/>
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1742,7 +1741,7 @@
       <c r="I35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="22"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1756,7 +1755,7 @@
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1791,7 +1790,7 @@
     </row>
     <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="22"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
   <si>
     <t>Musik</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Leberkäsofen (groß)</t>
   </si>
   <si>
-    <t>Seidlbar (Uno-Bar)</t>
-  </si>
-  <si>
     <t>Gerald</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>Schraubzwingen (30 Stück)</t>
   </si>
   <si>
-    <t>Bastmatten ---&gt; heuer 5 neue</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
@@ -360,6 +354,15 @@
   </si>
   <si>
     <t>4 zusätzliche Kühlschränke (groß)</t>
+  </si>
+  <si>
+    <t>Bastmatten</t>
+  </si>
+  <si>
+    <t>Seidlbar (2x Uno-Bar)</t>
+  </si>
+  <si>
+    <t>FR bis 14:00</t>
   </si>
 </sst>
 </file>
@@ -510,14 +513,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -825,7 +828,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,17 +924,17 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -946,18 +949,16 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="I5" s="8"/>
       <c r="J5" s="15"/>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -973,7 +974,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="21"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
@@ -981,7 +982,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -996,9 +997,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="I7" s="8"/>
       <c r="J7" s="15"/>
       <c r="K7" s="1" t="s">
         <v>45</v>
@@ -1007,7 +1006,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -1031,7 +1030,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -1049,7 +1048,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
@@ -1063,9 +1062,9 @@
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1073,7 +1072,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1080,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1107,7 +1106,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -1115,7 +1114,7 @@
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1124,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1133,7 +1132,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1141,7 +1140,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1165,13 +1164,13 @@
       <c r="A14" s="8"/>
       <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8" t="s">
@@ -1185,7 +1184,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -1201,11 +1200,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>60</v>
@@ -1227,17 +1226,17 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="J16" s="15"/>
       <c r="K16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1252,18 +1251,18 @@
         <v>58</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="14"/>
       <c r="H17" s="1"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="21"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1270,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -1279,13 +1278,13 @@
       <c r="A18" s="8"/>
       <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="8" t="s">
@@ -1299,7 +1298,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -1315,17 +1314,17 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="21"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -1333,13 +1332,13 @@
       <c r="A20" s="8"/>
       <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="8" t="s">
@@ -1369,7 +1368,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="15"/>
@@ -1379,7 +1378,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -1395,7 +1394,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
@@ -1407,10 +1406,10 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,10 +1432,10 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,21 +1448,21 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="J24" s="15"/>
       <c r="K24" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -1477,21 +1476,21 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="J25" s="15"/>
       <c r="K25" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -1505,27 +1504,27 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="J26" s="15"/>
       <c r="K26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="24"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1533,11 +1532,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="1" t="s">
@@ -1546,23 +1545,23 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="4" t="s">
@@ -1577,21 +1576,21 @@
     <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P29" s="1"/>
     </row>
@@ -1599,23 +1598,26 @@
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J30" s="17"/>
+        <v>102</v>
+      </c>
+      <c r="J30" s="15"/>
       <c r="K30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P30" s="1"/>
     </row>
@@ -1637,13 +1639,13 @@
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P31" s="1"/>
     </row>
@@ -1659,7 +1661,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="1" t="s">
@@ -1669,13 +1671,13 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="1" t="s">
@@ -1685,7 +1687,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="8"/>
@@ -1715,7 +1717,7 @@
       <c r="I34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="21"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1727,9 +1729,9 @@
     </row>
     <row r="35" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="B35" s="15"/>
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1741,7 +1743,7 @@
       <c r="I35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="21"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1755,7 +1757,7 @@
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1790,7 +1792,7 @@
     </row>
     <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>

--- a/trunk/2015/GN-Checkliste 2015.xlsx
+++ b/trunk/2015/GN-Checkliste 2015.xlsx
@@ -488,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -515,12 +515,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -828,7 +826,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +972,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="25"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1072,7 +1070,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1122,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1522,7 @@
     </row>
     <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="22"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1582,7 +1580,7 @@
       <c r="I29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="23"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="1" t="s">
         <v>101</v>
       </c>
@@ -1757,7 +1755,7 @@
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1770,7 +1768,7 @@
     </row>
     <row r="37" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="17"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,7 +1790,7 @@
     </row>
     <row r="38" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>
